--- a/Projects/Metrics/DSRIP-TR022 ( Steve)/TR022 - Comprehensive Diabetes Screening - All Three Tests - Technical Specification.xlsx
+++ b/Projects/Metrics/DSRIP-TR022 ( Steve)/TR022 - Comprehensive Diabetes Screening - All Three Tests - Technical Specification.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hardingw\Documents\DSRIP\DSRIP Reporting\Diabetes Reports\Comprehensive Diabetes Care\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\GIT\NYCHHC\Projects\Metrics\DSRIP-TR022 ( Steve)\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TR022" sheetId="1" r:id="rId1"/>
-    <sheet name="HbA1c" sheetId="14" r:id="rId2"/>
-    <sheet name="Diabetes" sheetId="5" r:id="rId3"/>
-    <sheet name="Diabetes Medications" sheetId="11" r:id="rId4"/>
-    <sheet name="Nephropathy Screen_Monitor" sheetId="13" r:id="rId5"/>
-    <sheet name="Nephropathy Treatment" sheetId="15" r:id="rId6"/>
-    <sheet name="ACE_ARB" sheetId="16" r:id="rId7"/>
-    <sheet name="Stage 4 CKD" sheetId="17" r:id="rId8"/>
-    <sheet name="ESRD_Kidney Transplant" sheetId="18" r:id="rId9"/>
+    <sheet name="EYE EAXM" sheetId="19" r:id="rId2"/>
+    <sheet name="HbA1c" sheetId="14" r:id="rId3"/>
+    <sheet name="Diabetes" sheetId="5" r:id="rId4"/>
+    <sheet name="Diabetes Medications" sheetId="11" r:id="rId5"/>
+    <sheet name="Nephropathy Screen_Monitor" sheetId="13" r:id="rId6"/>
+    <sheet name="Nephropathy Treatment" sheetId="15" r:id="rId7"/>
+    <sheet name="ACE_ARB" sheetId="16" r:id="rId8"/>
+    <sheet name="Stage 4 CKD" sheetId="17" r:id="rId9"/>
+    <sheet name="ESRD_Kidney Transplant" sheetId="18" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Diabetes Medications'!$A$1:$A$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Diabetes Medications'!$A$1:$A$154</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="1142">
   <si>
     <t>Fields to include</t>
   </si>
@@ -3642,6 +3643,282 @@
   <si>
     <t>If the patient is not taking diabetes medications but diagnosed with diabetes, is it necessary to query for test strips?</t>
   </si>
+  <si>
+    <t>GP2</t>
+  </si>
+  <si>
+    <t>AG/216/5/500/4</t>
+  </si>
+  <si>
+    <t>Gonioscopy Right</t>
+  </si>
+  <si>
+    <t>AG/216/5/500/5</t>
+  </si>
+  <si>
+    <t>Gonioscopy Left</t>
+  </si>
+  <si>
+    <t>AG/216/6/591/4</t>
+  </si>
+  <si>
+    <t>AG/216/6/591/5</t>
+  </si>
+  <si>
+    <t>AG/229/1/512/2</t>
+  </si>
+  <si>
+    <t>Retinal Exam</t>
+  </si>
+  <si>
+    <t>AG/229/18/863/11</t>
+  </si>
+  <si>
+    <t>Date of Last Retinal Exam</t>
+  </si>
+  <si>
+    <t>AG/229/8/851/5</t>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>AG/374/1/785/7</t>
+  </si>
+  <si>
+    <t>AG/374/3/908/7</t>
+  </si>
+  <si>
+    <t>AG/391/5/850/4</t>
+  </si>
+  <si>
+    <t>AG/391/5/850/5</t>
+  </si>
+  <si>
+    <t>AG/440/17/1872/15</t>
+  </si>
+  <si>
+    <t>Last Retinal Exam Result</t>
+  </si>
+  <si>
+    <t>AG/440/17/1872/20</t>
+  </si>
+  <si>
+    <t>Last Retinal Exam (Date)</t>
+  </si>
+  <si>
+    <t>AG/440/18/1872/15</t>
+  </si>
+  <si>
+    <t>AG/440/18/1872/20</t>
+  </si>
+  <si>
+    <t>AG/73/36/862/1</t>
+  </si>
+  <si>
+    <t>AG/73/67/1267/25</t>
+  </si>
+  <si>
+    <t>AG/73/70/1366/26</t>
+  </si>
+  <si>
+    <t>Retinal Exam Performed</t>
+  </si>
+  <si>
+    <t>AG/73/70/1366/27</t>
+  </si>
+  <si>
+    <t>Retinal Exam Findings</t>
+  </si>
+  <si>
+    <t>CBN</t>
+  </si>
+  <si>
+    <t>AG/847/1/531/8</t>
+  </si>
+  <si>
+    <t>Retinal Vessels</t>
+  </si>
+  <si>
+    <t>AG/847/1/531/9</t>
+  </si>
+  <si>
+    <t>Retinal Periphery</t>
+  </si>
+  <si>
+    <t>SMN</t>
+  </si>
+  <si>
+    <t>MC/9469/24/676/7</t>
+  </si>
+  <si>
+    <t>Retina</t>
+  </si>
+  <si>
+    <t>MC/9526/24/676/7</t>
+  </si>
+  <si>
+    <t>SBN</t>
+  </si>
+  <si>
+    <t>RD/10926/1</t>
+  </si>
+  <si>
+    <t>Retinal Procedure</t>
+  </si>
+  <si>
+    <t>RD/308/22</t>
+  </si>
+  <si>
+    <t>Dilated Retinal Exam</t>
+  </si>
+  <si>
+    <t>RD/335/7</t>
+  </si>
+  <si>
+    <t>RD/368/11</t>
+  </si>
+  <si>
+    <t>NBN</t>
+  </si>
+  <si>
+    <t>RD/5977/3</t>
+  </si>
+  <si>
+    <t>Retinal Diagram #1</t>
+  </si>
+  <si>
+    <t>RD/5977/5</t>
+  </si>
+  <si>
+    <t>Retinal Diagram #2</t>
+  </si>
+  <si>
+    <t>RD/5977/9</t>
+  </si>
+  <si>
+    <t>RD/6460/68</t>
+  </si>
+  <si>
+    <t>Retinal Exam/Photograph?</t>
+  </si>
+  <si>
+    <t>RD/6477/71</t>
+  </si>
+  <si>
+    <t>RD/6871/136</t>
+  </si>
+  <si>
+    <t>Retinal Exam/Photo</t>
+  </si>
+  <si>
+    <t>RD/7130/136</t>
+  </si>
+  <si>
+    <t>RD/7162/136</t>
+  </si>
+  <si>
+    <t>RD/7163/136</t>
+  </si>
+  <si>
+    <t>QHN</t>
+  </si>
+  <si>
+    <t>RD/7211/5</t>
+  </si>
+  <si>
+    <t>RD/7239/136</t>
+  </si>
+  <si>
+    <t>RD/7268/71</t>
+  </si>
+  <si>
+    <t>RD/7276/68</t>
+  </si>
+  <si>
+    <t>RD/7279/136</t>
+  </si>
+  <si>
+    <t>RD/7288/68</t>
+  </si>
+  <si>
+    <t>RD/7295/136</t>
+  </si>
+  <si>
+    <t>RD/7635/11</t>
+  </si>
+  <si>
+    <t>RD/7944/8</t>
+  </si>
+  <si>
+    <t>RD/7945/8</t>
+  </si>
+  <si>
+    <t>RD/7946/8</t>
+  </si>
+  <si>
+    <t>NBX</t>
+  </si>
+  <si>
+    <t>RD/8816/88</t>
+  </si>
+  <si>
+    <t>Ant Retinal Eye</t>
+  </si>
+  <si>
+    <t>RD/9097/5</t>
+  </si>
+  <si>
+    <t>Hx Retinal Exam</t>
+  </si>
+  <si>
+    <t>RD/9227/1</t>
+  </si>
+  <si>
+    <t>RD/9282/1</t>
+  </si>
+  <si>
+    <t>Retina Diagram</t>
+  </si>
+  <si>
+    <t>RD/9290/10</t>
+  </si>
+  <si>
+    <t>*Retinal Scan Photo</t>
+  </si>
+  <si>
+    <t>RD/9469/41</t>
+  </si>
+  <si>
+    <t>Tonometry</t>
+  </si>
+  <si>
+    <t>RD/9526/41</t>
+  </si>
+  <si>
+    <t>RD/9526/50</t>
+  </si>
+  <si>
+    <t>Gonioscopy</t>
+  </si>
+  <si>
+    <t>RD/9526/51</t>
+  </si>
+  <si>
+    <t>Pachymetry</t>
+  </si>
+  <si>
+    <t>RD/9673/20</t>
+  </si>
+  <si>
+    <t>RD/9737/50</t>
+  </si>
+  <si>
+    <t>RD/9737/51</t>
+  </si>
+  <si>
+    <t>RD/9737/62</t>
+  </si>
 </sst>
 </file>
 
@@ -3841,7 +4118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3965,6 +4242,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4248,17 +4526,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="55.77734375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="56.109375" style="8" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="1" width="26.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="55.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="56.140625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" ht="28.8">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -4266,7 +4546,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="27.6">
+    <row r="3" spans="1:3" ht="25.5">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -4274,7 +4554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="302.39999999999998">
+    <row r="4" spans="1:3" ht="357">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
@@ -4283,7 +4563,7 @@
       </c>
       <c r="C4" s="13"/>
     </row>
-    <row r="5" spans="1:3" ht="124.2">
+    <row r="5" spans="1:3" ht="114.75">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
@@ -4292,7 +4572,7 @@
       </c>
       <c r="C5" s="13"/>
     </row>
-    <row r="6" spans="1:3" ht="57.6">
+    <row r="6" spans="1:3" ht="60">
       <c r="A6" s="11" t="s">
         <v>229</v>
       </c>
@@ -4304,7 +4584,7 @@
       <c r="A7" s="10"/>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:3" ht="28.8">
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -4312,7 +4592,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="28.8">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
@@ -4320,7 +4600,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="57.6">
+    <row r="10" spans="1:3" ht="75">
       <c r="A10" s="3" t="s">
         <v>4</v>
       </c>
@@ -4328,7 +4608,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="28.8">
+    <row r="11" spans="1:3" ht="30">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -4336,7 +4616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="28.8">
+    <row r="12" spans="1:3" ht="30">
       <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
@@ -4352,7 +4632,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="28.8">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="3" t="s">
         <v>1</v>
       </c>
@@ -4360,7 +4640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="303.60000000000002">
+    <row r="15" spans="1:3" ht="280.5">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -4368,7 +4648,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="28.8">
+    <row r="16" spans="1:3" ht="45">
       <c r="A16" s="3" t="s">
         <v>1045</v>
       </c>
@@ -4394,1982 +4674,146 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6">
-      <c r="A1" s="36" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="31.2">
-      <c r="A3" s="37" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="31.2">
-      <c r="A4" s="37" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="31.2">
-      <c r="A5" s="37" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6">
-      <c r="A6" s="7"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.6">
-      <c r="A7" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E209"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
-  <cols>
-    <col min="1" max="1" width="9.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="6"/>
-    <col min="3" max="3" width="8.88671875" style="7"/>
-    <col min="4" max="4" width="11.44140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" style="7" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="D1" s="42" t="s">
-        <v>667</v>
-      </c>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+    <row r="1" spans="1:5" ht="15.75">
+      <c r="A1" s="44" t="s">
+        <v>442</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.75">
+      <c r="A2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B2" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>869</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>870</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>871</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>872</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>873</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>874</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>875</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>876</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="28" t="s">
-        <v>877</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>878</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="28" t="s">
-        <v>879</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>880</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>881</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>882</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>883</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="28" t="s">
-        <v>884</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>885</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="28" t="s">
-        <v>886</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>887</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>888</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>889</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="28" t="s">
-        <v>890</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="28" t="s">
-        <v>891</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>892</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="D28" s="28" t="s">
-        <v>893</v>
-      </c>
-      <c r="E28" s="28" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D29" s="28" t="s">
-        <v>894</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D30" s="28" t="s">
-        <v>895</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D31" s="31"/>
-      <c r="E31" s="28" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="28" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="28" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="28" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="28" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="28" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="31"/>
-      <c r="E37" s="28" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D38" s="31"/>
-      <c r="E38" s="28" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="D39" s="31"/>
-      <c r="E39" s="28" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="31"/>
-      <c r="E40" s="28" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="31"/>
-      <c r="E41" s="28" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D42" s="31"/>
-      <c r="E42" s="28" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="31"/>
-      <c r="E43" s="28" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="28" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="28" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="31"/>
-      <c r="E46" s="28" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="28" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="28" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="28" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="28" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D51" s="31"/>
-      <c r="E51" s="28" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="28" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="31"/>
-      <c r="E53" s="28" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="D54" s="31"/>
-      <c r="E54" s="28" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D55" s="31"/>
-      <c r="E55" s="28" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="28" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="28" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="B58" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="28" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="B59" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="28" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="B60" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D60" s="31"/>
-      <c r="E60" s="28" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="B61" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D61" s="31"/>
-      <c r="E61" s="28" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="B62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D62" s="31"/>
-      <c r="E62" s="28" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="B63" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D63" s="31"/>
-      <c r="E63" s="28" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="B64" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="31"/>
-      <c r="E64" s="28" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5">
-      <c r="B65" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D65" s="31"/>
-      <c r="E65" s="28" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5">
-      <c r="B66" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D66" s="31"/>
-      <c r="E66" s="28" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5">
-      <c r="B67" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D67" s="31"/>
-      <c r="E67" s="28" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="68" spans="2:5">
-      <c r="B68" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="28" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="69" spans="2:5">
-      <c r="B69" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D69" s="31"/>
-      <c r="E69" s="28" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5">
-      <c r="B70" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D70" s="31"/>
-      <c r="E70" s="28" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="71" spans="2:5">
-      <c r="B71" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D71" s="31"/>
-      <c r="E71" s="28" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="72" spans="2:5">
-      <c r="B72" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D72" s="31"/>
-      <c r="E72" s="28" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5">
-      <c r="B73" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D73" s="31"/>
-      <c r="E73" s="28" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5">
-      <c r="B74" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" s="31"/>
-      <c r="E74" s="28" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5">
-      <c r="B75" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D75" s="31"/>
-      <c r="E75" s="28" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="76" spans="2:5">
-      <c r="B76" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D76" s="31"/>
-      <c r="E76" s="28" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5">
-      <c r="B77" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D77" s="31"/>
-      <c r="E77" s="28" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5">
-      <c r="B78" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D78" s="31"/>
-      <c r="E78" s="28" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="79" spans="2:5">
-      <c r="B79" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D79" s="31"/>
-      <c r="E79" s="28" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="80" spans="2:5">
-      <c r="B80" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D80" s="31"/>
-      <c r="E80" s="28" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="81" spans="2:5">
-      <c r="B81" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D81" s="31"/>
-      <c r="E81" s="28" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="82" spans="2:5">
-      <c r="B82" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D82" s="31"/>
-      <c r="E82" s="28" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="83" spans="2:5">
-      <c r="B83" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D83" s="31"/>
-      <c r="E83" s="28" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="84" spans="2:5">
-      <c r="B84" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D84" s="31"/>
-      <c r="E84" s="28" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="85" spans="2:5">
-      <c r="B85" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D85" s="31"/>
-      <c r="E85" s="28" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="86" spans="2:5">
-      <c r="B86" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D86" s="31"/>
-      <c r="E86" s="28" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="87" spans="2:5">
-      <c r="B87" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="31"/>
-      <c r="E87" s="28" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="88" spans="2:5">
-      <c r="B88" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" s="31"/>
-      <c r="E88" s="28" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="89" spans="2:5">
-      <c r="B89" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D89" s="31"/>
-      <c r="E89" s="28" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="90" spans="2:5">
-      <c r="B90" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D90" s="31"/>
-      <c r="E90" s="28" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="91" spans="2:5">
-      <c r="B91" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D91" s="31"/>
-      <c r="E91" s="28" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="92" spans="2:5">
-      <c r="B92" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D92" s="31"/>
-      <c r="E92" s="28" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="93" spans="2:5">
-      <c r="B93" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D93" s="31"/>
-      <c r="E93" s="28" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="94" spans="2:5">
-      <c r="B94" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D94" s="31"/>
-      <c r="E94" s="28" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="95" spans="2:5">
-      <c r="B95" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D95" s="31"/>
-      <c r="E95" s="28" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="96" spans="2:5">
-      <c r="B96" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="31"/>
-      <c r="E96" s="28" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="97" spans="2:5">
-      <c r="B97" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="D97" s="31"/>
-      <c r="E97" s="28" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="98" spans="2:5">
-      <c r="B98" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="D98" s="31"/>
-      <c r="E98" s="28" t="s">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="99" spans="2:5">
-      <c r="B99" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="D99" s="31"/>
-      <c r="E99" s="28" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5">
-      <c r="B100" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="D100" s="31"/>
-      <c r="E100" s="28" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5">
-      <c r="B101" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="D101" s="31"/>
-      <c r="E101" s="28" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5">
-      <c r="B102" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="D102" s="31"/>
-      <c r="E102" s="28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5">
-      <c r="B103" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="D103" s="31"/>
-      <c r="E103" s="28" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="104" spans="2:5">
-      <c r="B104" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D104" s="31"/>
-      <c r="E104" s="28" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="105" spans="2:5">
-      <c r="B105" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D105" s="31"/>
-      <c r="E105" s="28" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5">
-      <c r="B106" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D106" s="31"/>
-      <c r="E106" s="28" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5">
-      <c r="B107" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D107" s="31"/>
-      <c r="E107" s="28" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5">
-      <c r="B108" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D108" s="31"/>
-      <c r="E108" s="28" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="109" spans="2:5">
-      <c r="B109" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="D109" s="31"/>
-      <c r="E109" s="28" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5">
-      <c r="B110" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D110" s="31"/>
-      <c r="E110" s="28" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="111" spans="2:5">
-      <c r="B111" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="D111" s="31"/>
-      <c r="E111" s="28" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5">
-      <c r="B112" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D112" s="31"/>
-      <c r="E112" s="28" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5">
-      <c r="B113" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D113" s="31"/>
-      <c r="E113" s="28" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5">
-      <c r="B114" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D114" s="31"/>
-      <c r="E114" s="28" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5">
-      <c r="B115" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D115" s="31"/>
-      <c r="E115" s="28" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="116" spans="2:5">
-      <c r="B116" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="D116" s="31"/>
-      <c r="E116" s="28" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5">
-      <c r="B117" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="D117" s="31"/>
-      <c r="E117" s="28" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5">
-      <c r="B118" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="D118" s="31"/>
-      <c r="E118" s="28" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5">
-      <c r="B119" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="D119" s="31"/>
-      <c r="E119" s="28" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="120" spans="2:5">
-      <c r="B120" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="D120" s="31"/>
-      <c r="E120" s="28" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="121" spans="2:5">
-      <c r="B121" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D121" s="31"/>
-      <c r="E121" s="28" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5">
-      <c r="B122" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="D122" s="31"/>
-      <c r="E122" s="28" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5">
-      <c r="B123" s="6" t="s">
-        <v>193</v>
-      </c>
-      <c r="D123" s="31"/>
-      <c r="E123" s="28" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5">
-      <c r="B124" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="D124" s="31"/>
-      <c r="E124" s="28" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="D125" s="31"/>
-      <c r="E125" s="28" t="s">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="126" spans="2:5">
-      <c r="B126" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D126" s="31"/>
-      <c r="E126" s="28" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="127" spans="2:5">
-      <c r="B127" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="D127" s="31"/>
-      <c r="E127" s="28" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="128" spans="2:5">
-      <c r="B128" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="D128" s="31"/>
-      <c r="E128" s="28" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="129" spans="2:5">
-      <c r="B129" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="D129" s="31"/>
-      <c r="E129" s="28" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="130" spans="2:5">
-      <c r="B130" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="D130" s="31"/>
-      <c r="E130" s="28" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="131" spans="2:5">
-      <c r="B131" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D131" s="31"/>
-      <c r="E131" s="28" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="132" spans="2:5">
-      <c r="B132" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="D132" s="31"/>
-      <c r="E132" s="28" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="133" spans="2:5">
-      <c r="B133" s="6" t="s">
-        <v>203</v>
-      </c>
-      <c r="D133" s="31"/>
-      <c r="E133" s="28" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="134" spans="2:5">
-      <c r="B134" s="6" t="s">
-        <v>204</v>
-      </c>
-      <c r="D134" s="31"/>
-      <c r="E134" s="28" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="135" spans="2:5">
-      <c r="B135" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="D135" s="31"/>
-      <c r="E135" s="28" t="s">
-        <v>794</v>
-      </c>
-    </row>
-    <row r="136" spans="2:5">
-      <c r="B136" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="D136" s="31"/>
-      <c r="E136" s="28" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="137" spans="2:5">
-      <c r="B137" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="D137" s="31"/>
-      <c r="E137" s="28" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="138" spans="2:5">
-      <c r="B138" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="D138" s="31"/>
-      <c r="E138" s="28" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="139" spans="2:5">
-      <c r="B139" s="6" t="s">
-        <v>209</v>
-      </c>
-      <c r="D139" s="31"/>
-      <c r="E139" s="28" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="140" spans="2:5">
-      <c r="B140" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="D140" s="31"/>
-      <c r="E140" s="28" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="141" spans="2:5">
-      <c r="B141" s="6" t="s">
-        <v>211</v>
-      </c>
-      <c r="D141" s="31"/>
-      <c r="E141" s="28" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="142" spans="2:5">
-      <c r="B142" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="D142" s="31"/>
-      <c r="E142" s="28" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="143" spans="2:5">
-      <c r="B143" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="D143" s="31"/>
-      <c r="E143" s="28" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="144" spans="2:5">
-      <c r="B144" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="D144" s="31"/>
-      <c r="E144" s="28" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="145" spans="2:5">
-      <c r="B145" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="D145" s="31"/>
-      <c r="E145" s="28" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="146" spans="2:5">
-      <c r="B146" s="6" t="s">
-        <v>216</v>
-      </c>
-      <c r="D146" s="31"/>
-      <c r="E146" s="28" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="147" spans="2:5">
-      <c r="B147" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="D147" s="31"/>
-      <c r="E147" s="28" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="148" spans="2:5">
-      <c r="B148" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="D148" s="31"/>
-      <c r="E148" s="28" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="149" spans="2:5">
-      <c r="B149" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="D149" s="31"/>
-      <c r="E149" s="28" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="150" spans="2:5">
-      <c r="D150" s="31"/>
-      <c r="E150" s="28" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="151" spans="2:5">
-      <c r="D151" s="31"/>
-      <c r="E151" s="28" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="152" spans="2:5">
-      <c r="D152" s="31"/>
-      <c r="E152" s="28" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="153" spans="2:5">
-      <c r="D153" s="31"/>
-      <c r="E153" s="28" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="154" spans="2:5">
-      <c r="D154" s="31"/>
-      <c r="E154" s="28" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="155" spans="2:5">
-      <c r="D155" s="31"/>
-      <c r="E155" s="28" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="156" spans="2:5">
-      <c r="D156" s="31"/>
-      <c r="E156" s="28" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="157" spans="2:5">
-      <c r="D157" s="31"/>
-      <c r="E157" s="28" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="158" spans="2:5">
-      <c r="D158" s="31"/>
-      <c r="E158" s="28" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="159" spans="2:5">
-      <c r="D159" s="31"/>
-      <c r="E159" s="28" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="160" spans="2:5">
-      <c r="D160" s="31"/>
-      <c r="E160" s="28" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="161" spans="4:5">
-      <c r="D161" s="31"/>
-      <c r="E161" s="28" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="162" spans="4:5">
-      <c r="D162" s="31"/>
-      <c r="E162" s="28" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="163" spans="4:5">
-      <c r="D163" s="31"/>
-      <c r="E163" s="28" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="164" spans="4:5">
-      <c r="D164" s="31"/>
-      <c r="E164" s="28" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="165" spans="4:5">
-      <c r="D165" s="31"/>
-      <c r="E165" s="28" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="166" spans="4:5">
-      <c r="D166" s="31"/>
-      <c r="E166" s="28" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="167" spans="4:5">
-      <c r="D167" s="31"/>
-      <c r="E167" s="28" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="168" spans="4:5">
-      <c r="D168" s="31"/>
-      <c r="E168" s="28" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="169" spans="4:5">
-      <c r="D169" s="31"/>
-      <c r="E169" s="28" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="170" spans="4:5">
-      <c r="D170" s="31"/>
-      <c r="E170" s="28" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="171" spans="4:5">
-      <c r="D171" s="31"/>
-      <c r="E171" s="28" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="172" spans="4:5">
-      <c r="D172" s="31"/>
-      <c r="E172" s="28" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="173" spans="4:5">
-      <c r="D173" s="31"/>
-      <c r="E173" s="28" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="174" spans="4:5">
-      <c r="D174" s="31"/>
-      <c r="E174" s="28" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="175" spans="4:5">
-      <c r="D175" s="31"/>
-      <c r="E175" s="28" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="176" spans="4:5">
-      <c r="D176" s="31"/>
-      <c r="E176" s="28" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="177" spans="4:5">
-      <c r="D177" s="31"/>
-      <c r="E177" s="28" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="178" spans="4:5">
-      <c r="D178" s="31"/>
-      <c r="E178" s="28" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="179" spans="4:5">
-      <c r="D179" s="31"/>
-      <c r="E179" s="28" t="s">
-        <v>838</v>
-      </c>
-    </row>
-    <row r="180" spans="4:5">
-      <c r="D180" s="31"/>
-      <c r="E180" s="28" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="181" spans="4:5">
-      <c r="D181" s="31"/>
-      <c r="E181" s="28" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="182" spans="4:5">
-      <c r="D182" s="31"/>
-      <c r="E182" s="28" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="183" spans="4:5">
-      <c r="D183" s="31"/>
-      <c r="E183" s="28" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="184" spans="4:5">
-      <c r="D184" s="31"/>
-      <c r="E184" s="28" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="185" spans="4:5">
-      <c r="D185" s="31"/>
-      <c r="E185" s="28" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="186" spans="4:5">
-      <c r="D186" s="31"/>
-      <c r="E186" s="28" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="187" spans="4:5">
-      <c r="D187" s="31"/>
-      <c r="E187" s="28" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="188" spans="4:5">
-      <c r="D188" s="31"/>
-      <c r="E188" s="28" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="189" spans="4:5">
-      <c r="D189" s="31"/>
-      <c r="E189" s="28" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="190" spans="4:5">
-      <c r="D190" s="31"/>
-      <c r="E190" s="28" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="191" spans="4:5">
-      <c r="D191" s="31"/>
-      <c r="E191" s="28" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="192" spans="4:5">
-      <c r="D192" s="31"/>
-      <c r="E192" s="28" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="193" spans="4:5">
-      <c r="D193" s="31"/>
-      <c r="E193" s="28" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="194" spans="4:5">
-      <c r="D194" s="31"/>
-      <c r="E194" s="28" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="195" spans="4:5">
-      <c r="D195" s="31"/>
-      <c r="E195" s="28" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="196" spans="4:5">
-      <c r="D196" s="31"/>
-      <c r="E196" s="28" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="197" spans="4:5">
-      <c r="D197" s="31"/>
-      <c r="E197" s="28" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="198" spans="4:5">
-      <c r="D198" s="31"/>
-      <c r="E198" s="28" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="199" spans="4:5">
-      <c r="D199" s="31"/>
-      <c r="E199" s="28" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="200" spans="4:5">
-      <c r="D200" s="31"/>
-      <c r="E200" s="28" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="201" spans="4:5">
-      <c r="D201" s="31"/>
-      <c r="E201" s="28" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="202" spans="4:5">
-      <c r="D202" s="31"/>
-      <c r="E202" s="28" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="203" spans="4:5">
-      <c r="D203" s="31"/>
-      <c r="E203" s="28" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="204" spans="4:5">
-      <c r="D204" s="31"/>
-      <c r="E204" s="28" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="205" spans="4:5">
-      <c r="D205" s="31"/>
-      <c r="E205" s="28" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="206" spans="4:5">
-      <c r="D206" s="31"/>
-      <c r="E206" s="28" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="207" spans="4:5">
-      <c r="D207" s="31"/>
-      <c r="E207" s="28" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="208" spans="4:5">
-      <c r="D208" s="31"/>
-      <c r="E208" s="28" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="209" spans="4:5">
-      <c r="D209" s="31"/>
-      <c r="E209" s="28" t="s">
-        <v>868</v>
-      </c>
+    <row r="3" spans="1:5" ht="15.75">
+      <c r="A3" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75">
+      <c r="A4" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75">
+      <c r="A5" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75">
+      <c r="A6" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C6" s="19"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75">
+      <c r="A7" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75">
+      <c r="A8" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75">
+      <c r="A10" s="26" t="s">
+        <v>437</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -6380,7 +4824,2671 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B3" s="45" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="45" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="45" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B27" s="45" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B28" s="45" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B29" s="45" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B30" s="45" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B31" s="45" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B34" s="45" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B35" s="45" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B36" s="45" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B37" s="45" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C37" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B38" s="45" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C38" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B39" s="45" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B40" s="45" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B41" s="45" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C41" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B42" s="45" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C42" s="45" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="45" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C43" s="45" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="45" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B44" s="45" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C44" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C45" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B46" s="45" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C46" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="45" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B47" s="45" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C47" s="45" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B48" s="45" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C48" s="45" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="45" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C49" s="45" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="45" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B50" s="45" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C50" s="45" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B51" s="45" t="s">
+        <v>1127</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B52" s="45" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C52" s="45" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B53" s="45" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C53" s="45" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B54" s="45" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C54" s="45" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B55" s="45" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B56" s="45" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="45" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B57" s="45" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C57" s="45" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B58" s="45" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C58" s="45" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B59" s="45" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="45" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B60" s="45" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C60" s="45" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75">
+      <c r="A1" s="36" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="31.5">
+      <c r="A3" s="37" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="31.5">
+      <c r="A4" s="37" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="31.5">
+      <c r="A5" s="37" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75">
+      <c r="A7" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E209"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9.85546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="6"/>
+    <col min="3" max="3" width="8.85546875" style="7"/>
+    <col min="4" max="4" width="11.42578125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="D1" s="42" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="42"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>869</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>870</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>871</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>872</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>873</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>874</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>875</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>876</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="28" t="s">
+        <v>877</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>878</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>879</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>880</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>881</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="28" t="s">
+        <v>882</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>883</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>884</v>
+      </c>
+      <c r="E19" s="28" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>885</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="28" t="s">
+        <v>886</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="28" t="s">
+        <v>887</v>
+      </c>
+      <c r="E22" s="28" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>888</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>889</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="28" t="s">
+        <v>890</v>
+      </c>
+      <c r="E25" s="28" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="28" t="s">
+        <v>891</v>
+      </c>
+      <c r="E26" s="28" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>892</v>
+      </c>
+      <c r="E27" s="28" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>893</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>894</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D30" s="28" t="s">
+        <v>895</v>
+      </c>
+      <c r="E30" s="28" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="31"/>
+      <c r="E31" s="28" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="28" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="31"/>
+      <c r="E33" s="28" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D34" s="31"/>
+      <c r="E34" s="28" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="31"/>
+      <c r="E35" s="28" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="31"/>
+      <c r="E36" s="28" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="31"/>
+      <c r="E37" s="28" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="28" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="28" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="28" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="28" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="28" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D43" s="31"/>
+      <c r="E43" s="28" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D44" s="31"/>
+      <c r="E44" s="28" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="31"/>
+      <c r="E45" s="28" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="31"/>
+      <c r="E46" s="28" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="31"/>
+      <c r="E47" s="28" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" s="31"/>
+      <c r="E48" s="28" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D49" s="31"/>
+      <c r="E49" s="28" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="31"/>
+      <c r="E50" s="28" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D51" s="31"/>
+      <c r="E51" s="28" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D52" s="31"/>
+      <c r="E52" s="28" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="31"/>
+      <c r="E53" s="28" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="31"/>
+      <c r="E54" s="28" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="31"/>
+      <c r="E55" s="28" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="31"/>
+      <c r="E56" s="28" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D57" s="31"/>
+      <c r="E57" s="28" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="B58" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D58" s="31"/>
+      <c r="E58" s="28" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="B59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D59" s="31"/>
+      <c r="E59" s="28" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="B60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D60" s="31"/>
+      <c r="E60" s="28" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="B61" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D61" s="31"/>
+      <c r="E61" s="28" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="B62" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" s="31"/>
+      <c r="E62" s="28" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="B63" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D63" s="31"/>
+      <c r="E63" s="28" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="B64" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="31"/>
+      <c r="E64" s="28" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="B65" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D65" s="31"/>
+      <c r="E65" s="28" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="31"/>
+      <c r="E66" s="28" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5">
+      <c r="B67" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D67" s="31"/>
+      <c r="E67" s="28" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="B68" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="31"/>
+      <c r="E68" s="28" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="31"/>
+      <c r="E69" s="28" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D70" s="31"/>
+      <c r="E70" s="28" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D71" s="31"/>
+      <c r="E71" s="28" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D72" s="31"/>
+      <c r="E72" s="28" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="B73" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="31"/>
+      <c r="E73" s="28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="B74" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" s="31"/>
+      <c r="E74" s="28" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="B75" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D75" s="31"/>
+      <c r="E75" s="28" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="B76" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D76" s="31"/>
+      <c r="E76" s="28" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="B77" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D77" s="31"/>
+      <c r="E77" s="28" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="31"/>
+      <c r="E78" s="28" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="B79" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="D79" s="31"/>
+      <c r="E79" s="28" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="B80" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D80" s="31"/>
+      <c r="E80" s="28" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="B81" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D81" s="31"/>
+      <c r="E81" s="28" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="D82" s="31"/>
+      <c r="E82" s="28" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="D83" s="31"/>
+      <c r="E83" s="28" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="D84" s="31"/>
+      <c r="E84" s="28" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="B85" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D85" s="31"/>
+      <c r="E85" s="28" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="B86" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="31"/>
+      <c r="E86" s="28" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="B87" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="31"/>
+      <c r="E87" s="28" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="B88" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="31"/>
+      <c r="E88" s="28" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="B89" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D89" s="31"/>
+      <c r="E89" s="28" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="B90" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D90" s="31"/>
+      <c r="E90" s="28" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="B91" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="31"/>
+      <c r="E91" s="28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5">
+      <c r="B92" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D92" s="31"/>
+      <c r="E92" s="28" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="B93" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D93" s="31"/>
+      <c r="E93" s="28" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="D94" s="31"/>
+      <c r="E94" s="28" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="B95" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D95" s="31"/>
+      <c r="E95" s="28" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D96" s="31"/>
+      <c r="E96" s="28" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5">
+      <c r="B97" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D97" s="31"/>
+      <c r="E97" s="28" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="98" spans="2:5">
+      <c r="B98" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D98" s="31"/>
+      <c r="E98" s="28" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="99" spans="2:5">
+      <c r="B99" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D99" s="31"/>
+      <c r="E99" s="28" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="100" spans="2:5">
+      <c r="B100" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="28" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="101" spans="2:5">
+      <c r="B101" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="28" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="102" spans="2:5">
+      <c r="B102" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D102" s="31"/>
+      <c r="E102" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5">
+      <c r="B103" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D103" s="31"/>
+      <c r="E103" s="28" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5">
+      <c r="B104" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D104" s="31"/>
+      <c r="E104" s="28" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5">
+      <c r="B105" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D105" s="31"/>
+      <c r="E105" s="28" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5">
+      <c r="B106" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D106" s="31"/>
+      <c r="E106" s="28" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5">
+      <c r="B107" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="31"/>
+      <c r="E107" s="28" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5">
+      <c r="B108" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="31"/>
+      <c r="E108" s="28" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5">
+      <c r="B109" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D109" s="31"/>
+      <c r="E109" s="28" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5">
+      <c r="B110" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D110" s="31"/>
+      <c r="E110" s="28" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5">
+      <c r="B111" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="D111" s="31"/>
+      <c r="E111" s="28" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5">
+      <c r="B112" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D112" s="31"/>
+      <c r="E112" s="28" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5">
+      <c r="B113" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="31"/>
+      <c r="E113" s="28" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5">
+      <c r="B114" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D114" s="31"/>
+      <c r="E114" s="28" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5">
+      <c r="B115" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D115" s="31"/>
+      <c r="E115" s="28" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5">
+      <c r="B116" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" s="31"/>
+      <c r="E116" s="28" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5">
+      <c r="B117" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="D117" s="31"/>
+      <c r="E117" s="28" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5">
+      <c r="B118" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D118" s="31"/>
+      <c r="E118" s="28" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5">
+      <c r="B119" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D119" s="31"/>
+      <c r="E119" s="28" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5">
+      <c r="B120" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="D120" s="31"/>
+      <c r="E120" s="28" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5">
+      <c r="B121" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D121" s="31"/>
+      <c r="E121" s="28" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5">
+      <c r="B122" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="D122" s="31"/>
+      <c r="E122" s="28" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5">
+      <c r="B123" s="6" t="s">
+        <v>193</v>
+      </c>
+      <c r="D123" s="31"/>
+      <c r="E123" s="28" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5">
+      <c r="B124" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D124" s="31"/>
+      <c r="E124" s="28" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5">
+      <c r="B125" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D125" s="31"/>
+      <c r="E125" s="28" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5">
+      <c r="B126" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D126" s="31"/>
+      <c r="E126" s="28" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5">
+      <c r="B127" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D127" s="31"/>
+      <c r="E127" s="28" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5">
+      <c r="B128" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D128" s="31"/>
+      <c r="E128" s="28" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5">
+      <c r="B129" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="D129" s="31"/>
+      <c r="E129" s="28" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="D130" s="31"/>
+      <c r="E130" s="28" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="B131" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="D131" s="31"/>
+      <c r="E131" s="28" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="B132" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D132" s="31"/>
+      <c r="E132" s="28" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="B133" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="D133" s="31"/>
+      <c r="E133" s="28" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="134" spans="2:5">
+      <c r="B134" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="D134" s="31"/>
+      <c r="E134" s="28" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="B135" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D135" s="31"/>
+      <c r="E135" s="28" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="B136" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D136" s="31"/>
+      <c r="E136" s="28" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="137" spans="2:5">
+      <c r="B137" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D137" s="31"/>
+      <c r="E137" s="28" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="138" spans="2:5">
+      <c r="B138" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="31"/>
+      <c r="E138" s="28" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D139" s="31"/>
+      <c r="E139" s="28" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="B140" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D140" s="31"/>
+      <c r="E140" s="28" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="B141" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="D141" s="31"/>
+      <c r="E141" s="28" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="B142" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="D142" s="31"/>
+      <c r="E142" s="28" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="B143" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D143" s="31"/>
+      <c r="E143" s="28" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="B144" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D144" s="31"/>
+      <c r="E144" s="28" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="B145" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="D145" s="31"/>
+      <c r="E145" s="28" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="B146" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D146" s="31"/>
+      <c r="E146" s="28" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="147" spans="2:5">
+      <c r="B147" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="D147" s="31"/>
+      <c r="E147" s="28" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="B148" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D148" s="31"/>
+      <c r="E148" s="28" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="B149" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="D149" s="31"/>
+      <c r="E149" s="28" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="D150" s="31"/>
+      <c r="E150" s="28" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="D151" s="31"/>
+      <c r="E151" s="28" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="D152" s="31"/>
+      <c r="E152" s="28" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="D153" s="31"/>
+      <c r="E153" s="28" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="154" spans="2:5">
+      <c r="D154" s="31"/>
+      <c r="E154" s="28" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="D155" s="31"/>
+      <c r="E155" s="28" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="156" spans="2:5">
+      <c r="D156" s="31"/>
+      <c r="E156" s="28" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="157" spans="2:5">
+      <c r="D157" s="31"/>
+      <c r="E157" s="28" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="D158" s="31"/>
+      <c r="E158" s="28" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="D159" s="31"/>
+      <c r="E159" s="28" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="D160" s="31"/>
+      <c r="E160" s="28" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="31"/>
+      <c r="E161" s="28" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5">
+      <c r="D162" s="31"/>
+      <c r="E162" s="28" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5">
+      <c r="D163" s="31"/>
+      <c r="E163" s="28" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5">
+      <c r="D164" s="31"/>
+      <c r="E164" s="28" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5">
+      <c r="D165" s="31"/>
+      <c r="E165" s="28" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5">
+      <c r="D166" s="31"/>
+      <c r="E166" s="28" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5">
+      <c r="D167" s="31"/>
+      <c r="E167" s="28" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5">
+      <c r="D168" s="31"/>
+      <c r="E168" s="28" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5">
+      <c r="D169" s="31"/>
+      <c r="E169" s="28" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5">
+      <c r="D170" s="31"/>
+      <c r="E170" s="28" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5">
+      <c r="D171" s="31"/>
+      <c r="E171" s="28" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5">
+      <c r="D172" s="31"/>
+      <c r="E172" s="28" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5">
+      <c r="D173" s="31"/>
+      <c r="E173" s="28" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="174" spans="4:5">
+      <c r="D174" s="31"/>
+      <c r="E174" s="28" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5">
+      <c r="D175" s="31"/>
+      <c r="E175" s="28" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="176" spans="4:5">
+      <c r="D176" s="31"/>
+      <c r="E176" s="28" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177" s="31"/>
+      <c r="E177" s="28" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178" s="31"/>
+      <c r="E178" s="28" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" s="31"/>
+      <c r="E179" s="28" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="180" spans="4:5">
+      <c r="D180" s="31"/>
+      <c r="E180" s="28" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181" s="31"/>
+      <c r="E181" s="28" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182" s="31"/>
+      <c r="E182" s="28" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" s="31"/>
+      <c r="E183" s="28" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="184" spans="4:5">
+      <c r="D184" s="31"/>
+      <c r="E184" s="28" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" s="31"/>
+      <c r="E185" s="28" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" s="31"/>
+      <c r="E186" s="28" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" s="31"/>
+      <c r="E187" s="28" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" s="31"/>
+      <c r="E188" s="28" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="189" spans="4:5">
+      <c r="D189" s="31"/>
+      <c r="E189" s="28" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="190" spans="4:5">
+      <c r="D190" s="31"/>
+      <c r="E190" s="28" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="191" spans="4:5">
+      <c r="D191" s="31"/>
+      <c r="E191" s="28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="192" spans="4:5">
+      <c r="D192" s="31"/>
+      <c r="E192" s="28" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="193" spans="4:5">
+      <c r="D193" s="31"/>
+      <c r="E193" s="28" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="194" spans="4:5">
+      <c r="D194" s="31"/>
+      <c r="E194" s="28" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="195" spans="4:5">
+      <c r="D195" s="31"/>
+      <c r="E195" s="28" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="196" spans="4:5">
+      <c r="D196" s="31"/>
+      <c r="E196" s="28" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="197" spans="4:5">
+      <c r="D197" s="31"/>
+      <c r="E197" s="28" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="198" spans="4:5">
+      <c r="D198" s="31"/>
+      <c r="E198" s="28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="199" spans="4:5">
+      <c r="D199" s="31"/>
+      <c r="E199" s="28" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="200" spans="4:5">
+      <c r="D200" s="31"/>
+      <c r="E200" s="28" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="201" spans="4:5">
+      <c r="D201" s="31"/>
+      <c r="E201" s="28" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="202" spans="4:5">
+      <c r="D202" s="31"/>
+      <c r="E202" s="28" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="203" spans="4:5">
+      <c r="D203" s="31"/>
+      <c r="E203" s="28" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="204" spans="4:5">
+      <c r="D204" s="31"/>
+      <c r="E204" s="28" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="205" spans="4:5">
+      <c r="D205" s="31"/>
+      <c r="E205" s="28" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="206" spans="4:5">
+      <c r="D206" s="31"/>
+      <c r="E206" s="28" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="207" spans="4:5">
+      <c r="D207" s="31"/>
+      <c r="E207" s="28" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="208" spans="4:5">
+      <c r="D208" s="31"/>
+      <c r="E208" s="28" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209" s="31"/>
+      <c r="E209" s="28" t="s">
+        <v>868</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E155"/>
   <sheetViews>
@@ -6388,17 +7496,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7280,30 +8388,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G156"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="62.88671875" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.88671875" style="19"/>
-    <col min="3" max="3" width="16.5546875" style="19" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="19"/>
-    <col min="6" max="6" width="58.77734375" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="19"/>
-    <col min="11" max="11" width="16.77734375" style="19" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" style="19" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="19"/>
-    <col min="14" max="14" width="11.77734375" style="19" customWidth="1"/>
-    <col min="15" max="15" width="16.6640625" style="19" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="19"/>
+    <col min="1" max="1" width="62.85546875" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.85546875" style="19"/>
+    <col min="3" max="3" width="16.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="19"/>
+    <col min="6" max="6" width="58.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="19" customWidth="1"/>
+    <col min="8" max="9" width="18.28515625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="19"/>
+    <col min="11" max="11" width="16.7109375" style="19" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" style="19"/>
+    <col min="14" max="14" width="11.7109375" style="19" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -7438,7 +8545,7 @@
       <c r="D17" s="39"/>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="31.2">
+    <row r="18" spans="1:7" ht="31.5">
       <c r="A18" s="20" t="s">
         <v>251</v>
       </c>
@@ -7598,7 +8705,7 @@
       <c r="D37" s="39"/>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" ht="31.2">
+    <row r="38" spans="1:7" ht="31.5">
       <c r="A38" s="20" t="s">
         <v>271</v>
       </c>
@@ -7678,7 +8785,7 @@
       <c r="D47" s="39"/>
       <c r="G47" s="24"/>
     </row>
-    <row r="48" spans="1:7" ht="31.2">
+    <row r="48" spans="1:7" ht="31.5">
       <c r="A48" s="20" t="s">
         <v>281</v>
       </c>
@@ -7686,7 +8793,7 @@
       <c r="D48" s="39"/>
       <c r="G48" s="24"/>
     </row>
-    <row r="49" spans="1:7" ht="31.2">
+    <row r="49" spans="1:7" ht="31.5">
       <c r="A49" s="20" t="s">
         <v>282</v>
       </c>
@@ -7734,7 +8841,7 @@
       <c r="D54" s="39"/>
       <c r="G54" s="24"/>
     </row>
-    <row r="55" spans="1:7" ht="31.2">
+    <row r="55" spans="1:7" ht="31.5">
       <c r="A55" s="20" t="s">
         <v>288</v>
       </c>
@@ -7742,7 +8849,7 @@
       <c r="D55" s="39"/>
       <c r="G55" s="24"/>
     </row>
-    <row r="56" spans="1:7" ht="31.2">
+    <row r="56" spans="1:7" ht="31.5">
       <c r="A56" s="20" t="s">
         <v>289</v>
       </c>
@@ -7750,7 +8857,7 @@
       <c r="D56" s="39"/>
       <c r="G56" s="24"/>
     </row>
-    <row r="57" spans="1:7" ht="31.2">
+    <row r="57" spans="1:7" ht="31.5">
       <c r="A57" s="20" t="s">
         <v>290</v>
       </c>
@@ -7862,7 +8969,7 @@
       <c r="D70" s="39"/>
       <c r="G70" s="24"/>
     </row>
-    <row r="71" spans="1:7" ht="31.2">
+    <row r="71" spans="1:7" ht="31.5">
       <c r="A71" s="20" t="s">
         <v>304</v>
       </c>
@@ -7870,7 +8977,7 @@
       <c r="D71" s="39"/>
       <c r="G71" s="24"/>
     </row>
-    <row r="72" spans="1:7" ht="31.2">
+    <row r="72" spans="1:7" ht="31.5">
       <c r="A72" s="20" t="s">
         <v>305</v>
       </c>
@@ -7878,7 +8985,7 @@
       <c r="D72" s="39"/>
       <c r="G72" s="24"/>
     </row>
-    <row r="73" spans="1:7" ht="31.2">
+    <row r="73" spans="1:7" ht="31.5">
       <c r="A73" s="20" t="s">
         <v>306</v>
       </c>
@@ -8286,7 +9393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B156"/>
   <sheetViews>
@@ -8294,19 +9401,19 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="44" t="s">
         <v>446</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="35" t="s">
         <v>17</v>
       </c>
@@ -8314,7 +9421,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="26" t="s">
         <v>52</v>
       </c>
@@ -8322,7 +9429,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="26" t="s">
         <v>54</v>
       </c>
@@ -8330,7 +9437,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="26" t="s">
         <v>56</v>
       </c>
@@ -8338,7 +9445,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="26" t="s">
         <v>58</v>
       </c>
@@ -8346,7 +9453,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="26" t="s">
         <v>589</v>
       </c>
@@ -8354,7 +9461,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.6">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="26" t="s">
         <v>590</v>
       </c>
@@ -8362,7 +9469,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="26" t="s">
         <v>591</v>
       </c>
@@ -8370,7 +9477,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.6">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="26" t="s">
         <v>592</v>
       </c>
@@ -8378,7 +9485,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.6">
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="26" t="s">
         <v>593</v>
       </c>
@@ -8386,7 +9493,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6">
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="26" t="s">
         <v>594</v>
       </c>
@@ -8394,7 +9501,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.6">
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="26" t="s">
         <v>595</v>
       </c>
@@ -8402,7 +9509,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.6">
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="26" t="s">
         <v>596</v>
       </c>
@@ -8410,7 +9517,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.6">
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="26" t="s">
         <v>597</v>
       </c>
@@ -8418,7 +9525,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.6">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="26" t="s">
         <v>598</v>
       </c>
@@ -8426,7 +9533,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="26" t="s">
         <v>599</v>
       </c>
@@ -8434,7 +9541,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="26" t="s">
         <v>600</v>
       </c>
@@ -8442,7 +9549,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.6">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="26" t="s">
         <v>601</v>
       </c>
@@ -8450,7 +9557,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.6">
+    <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="26" t="s">
         <v>602</v>
       </c>
@@ -8458,7 +9565,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.6">
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="26" t="s">
         <v>603</v>
       </c>
@@ -8466,7 +9573,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.6">
+    <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="26" t="s">
         <v>604</v>
       </c>
@@ -8474,7 +9581,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.6">
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="26" t="s">
         <v>605</v>
       </c>
@@ -8482,7 +9589,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.6">
+    <row r="24" spans="1:2" ht="15.75">
       <c r="A24" s="26" t="s">
         <v>606</v>
       </c>
@@ -8490,7 +9597,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.6">
+    <row r="25" spans="1:2" ht="15.75">
       <c r="A25" s="26" t="s">
         <v>607</v>
       </c>
@@ -8498,7 +9605,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.6">
+    <row r="26" spans="1:2" ht="15.75">
       <c r="A26" s="26" t="s">
         <v>608</v>
       </c>
@@ -8506,7 +9613,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.6">
+    <row r="27" spans="1:2" ht="15.75">
       <c r="A27" s="26" t="s">
         <v>609</v>
       </c>
@@ -8514,7 +9621,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.6">
+    <row r="28" spans="1:2" ht="15.75">
       <c r="A28" s="26" t="s">
         <v>610</v>
       </c>
@@ -8522,7 +9629,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.6">
+    <row r="29" spans="1:2" ht="15.75">
       <c r="A29" s="26" t="s">
         <v>611</v>
       </c>
@@ -8530,7 +9637,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.6">
+    <row r="30" spans="1:2" ht="15.75">
       <c r="A30" s="26" t="s">
         <v>612</v>
       </c>
@@ -8538,7 +9645,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.6">
+    <row r="31" spans="1:2" ht="15.75">
       <c r="A31" s="26" t="s">
         <v>613</v>
       </c>
@@ -8546,7 +9653,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.6">
+    <row r="32" spans="1:2" ht="15.75">
       <c r="A32" s="26" t="s">
         <v>614</v>
       </c>
@@ -8554,7 +9661,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.6">
+    <row r="33" spans="1:2" ht="15.75">
       <c r="A33" s="26" t="s">
         <v>615</v>
       </c>
@@ -8562,7 +9669,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.6">
+    <row r="34" spans="1:2" ht="15.75">
       <c r="A34" s="26" t="s">
         <v>616</v>
       </c>
@@ -8570,7 +9677,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.6">
+    <row r="35" spans="1:2" ht="15.75">
       <c r="A35" s="26" t="s">
         <v>617</v>
       </c>
@@ -8578,7 +9685,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.6">
+    <row r="36" spans="1:2" ht="15.75">
       <c r="A36" s="26" t="s">
         <v>618</v>
       </c>
@@ -8586,7 +9693,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.6">
+    <row r="37" spans="1:2" ht="15.75">
       <c r="A37" s="26" t="s">
         <v>619</v>
       </c>
@@ -8594,7 +9701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.6">
+    <row r="38" spans="1:2" ht="15.75">
       <c r="A38" s="26" t="s">
         <v>620</v>
       </c>
@@ -8602,7 +9709,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.6">
+    <row r="39" spans="1:2" ht="15.75">
       <c r="A39" s="26" t="s">
         <v>621</v>
       </c>
@@ -8610,7 +9717,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.6">
+    <row r="40" spans="1:2" ht="15.75">
       <c r="A40" s="26" t="s">
         <v>622</v>
       </c>
@@ -8618,7 +9725,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.6">
+    <row r="41" spans="1:2" ht="15.75">
       <c r="A41" s="26" t="s">
         <v>623</v>
       </c>
@@ -8626,7 +9733,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.6">
+    <row r="42" spans="1:2" ht="15.75">
       <c r="A42" s="26" t="s">
         <v>624</v>
       </c>
@@ -8634,7 +9741,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.6">
+    <row r="43" spans="1:2" ht="15.75">
       <c r="A43" s="26" t="s">
         <v>625</v>
       </c>
@@ -8642,7 +9749,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.6">
+    <row r="44" spans="1:2" ht="15.75">
       <c r="A44" s="26" t="s">
         <v>626</v>
       </c>
@@ -8650,7 +9757,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.6">
+    <row r="45" spans="1:2" ht="15.75">
       <c r="A45" s="26" t="s">
         <v>627</v>
       </c>
@@ -8658,7 +9765,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.6">
+    <row r="46" spans="1:2" ht="15.75">
       <c r="A46" s="26" t="s">
         <v>628</v>
       </c>
@@ -8666,7 +9773,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.6">
+    <row r="47" spans="1:2" ht="15.75">
       <c r="A47" s="26" t="s">
         <v>629</v>
       </c>
@@ -8674,7 +9781,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.6">
+    <row r="48" spans="1:2" ht="15.75">
       <c r="A48" s="26" t="s">
         <v>630</v>
       </c>
@@ -8682,7 +9789,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.6">
+    <row r="49" spans="1:2" ht="15.75">
       <c r="A49" s="26" t="s">
         <v>631</v>
       </c>
@@ -8690,7 +9797,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.6">
+    <row r="50" spans="1:2" ht="15.75">
       <c r="A50" s="26" t="s">
         <v>632</v>
       </c>
@@ -8698,7 +9805,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.6">
+    <row r="51" spans="1:2" ht="15.75">
       <c r="A51" s="26" t="s">
         <v>633</v>
       </c>
@@ -8706,7 +9813,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.6">
+    <row r="52" spans="1:2" ht="15.75">
       <c r="A52" s="26" t="s">
         <v>634</v>
       </c>
@@ -8714,7 +9821,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.6">
+    <row r="53" spans="1:2" ht="15.75">
       <c r="A53" s="26" t="s">
         <v>635</v>
       </c>
@@ -8722,7 +9829,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.6">
+    <row r="54" spans="1:2" ht="15.75">
       <c r="A54" s="26" t="s">
         <v>636</v>
       </c>
@@ -8730,7 +9837,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.6">
+    <row r="55" spans="1:2" ht="15.75">
       <c r="A55" s="26" t="s">
         <v>637</v>
       </c>
@@ -8738,7 +9845,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.6">
+    <row r="56" spans="1:2" ht="15.75">
       <c r="A56" s="26" t="s">
         <v>638</v>
       </c>
@@ -8746,7 +9853,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.6">
+    <row r="57" spans="1:2" ht="15.75">
       <c r="A57" s="26" t="s">
         <v>639</v>
       </c>
@@ -8754,7 +9861,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.6">
+    <row r="58" spans="1:2" ht="15.75">
       <c r="A58" s="26" t="s">
         <v>640</v>
       </c>
@@ -8762,7 +9869,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.6">
+    <row r="59" spans="1:2" ht="15.75">
       <c r="A59" s="26" t="s">
         <v>641</v>
       </c>
@@ -8770,7 +9877,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.6">
+    <row r="60" spans="1:2" ht="15.75">
       <c r="A60" s="26" t="s">
         <v>642</v>
       </c>
@@ -8778,7 +9885,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.6">
+    <row r="61" spans="1:2" ht="15.75">
       <c r="A61" s="26" t="s">
         <v>643</v>
       </c>
@@ -8786,7 +9893,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.6">
+    <row r="62" spans="1:2" ht="15.75">
       <c r="A62" s="26" t="s">
         <v>644</v>
       </c>
@@ -8794,7 +9901,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.6">
+    <row r="63" spans="1:2" ht="15.75">
       <c r="A63" s="26" t="s">
         <v>645</v>
       </c>
@@ -8802,7 +9909,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.6">
+    <row r="64" spans="1:2" ht="15.75">
       <c r="A64" s="26" t="s">
         <v>646</v>
       </c>
@@ -8810,7 +9917,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.6">
+    <row r="65" spans="1:2" ht="15.75">
       <c r="A65" s="26" t="s">
         <v>647</v>
       </c>
@@ -8818,7 +9925,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.6">
+    <row r="66" spans="1:2" ht="15.75">
       <c r="A66" s="26" t="s">
         <v>648</v>
       </c>
@@ -8826,7 +9933,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.6">
+    <row r="67" spans="1:2" ht="15.75">
       <c r="A67" s="26" t="s">
         <v>649</v>
       </c>
@@ -8834,7 +9941,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.6">
+    <row r="68" spans="1:2" ht="15.75">
       <c r="A68" s="26" t="s">
         <v>650</v>
       </c>
@@ -8842,7 +9949,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.6">
+    <row r="69" spans="1:2" ht="15.75">
       <c r="A69" s="26" t="s">
         <v>651</v>
       </c>
@@ -8850,7 +9957,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.6">
+    <row r="70" spans="1:2" ht="15.75">
       <c r="A70" s="26" t="s">
         <v>652</v>
       </c>
@@ -8858,7 +9965,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.6">
+    <row r="71" spans="1:2" ht="15.75">
       <c r="A71" s="26" t="s">
         <v>653</v>
       </c>
@@ -8866,7 +9973,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.6">
+    <row r="72" spans="1:2" ht="15.75">
       <c r="A72" s="26" t="s">
         <v>654</v>
       </c>
@@ -8874,7 +9981,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.6">
+    <row r="73" spans="1:2" ht="15.75">
       <c r="A73" s="26" t="s">
         <v>655</v>
       </c>
@@ -8882,7 +9989,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.6">
+    <row r="74" spans="1:2" ht="15.75">
       <c r="A74" s="26" t="s">
         <v>656</v>
       </c>
@@ -8890,7 +9997,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.6">
+    <row r="75" spans="1:2" ht="15.75">
       <c r="A75" s="26" t="s">
         <v>657</v>
       </c>
@@ -8898,7 +10005,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.6">
+    <row r="76" spans="1:2" ht="15.75">
       <c r="A76" s="26" t="s">
         <v>658</v>
       </c>
@@ -8906,7 +10013,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.6">
+    <row r="77" spans="1:2" ht="15.75">
       <c r="A77" s="26" t="s">
         <v>659</v>
       </c>
@@ -8914,7 +10021,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.6">
+    <row r="78" spans="1:2" ht="15.75">
       <c r="A78" s="26" t="s">
         <v>660</v>
       </c>
@@ -8922,7 +10029,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.6">
+    <row r="79" spans="1:2" ht="15.75">
       <c r="A79" s="26" t="s">
         <v>661</v>
       </c>
@@ -8930,7 +10037,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.6">
+    <row r="80" spans="1:2" ht="15.75">
       <c r="A80" s="26" t="s">
         <v>662</v>
       </c>
@@ -8938,7 +10045,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.6">
+    <row r="81" spans="1:2" ht="15.75">
       <c r="A81" s="26" t="s">
         <v>663</v>
       </c>
@@ -8946,7 +10053,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.6">
+    <row r="82" spans="1:2" ht="15.75">
       <c r="A82" s="26" t="s">
         <v>664</v>
       </c>
@@ -8954,445 +10061,445 @@
         <v>517</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.6">
+    <row r="83" spans="1:2" ht="15.75">
       <c r="A83" s="19"/>
       <c r="B83" s="26" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.6">
+    <row r="84" spans="1:2" ht="15.75">
       <c r="A84" s="19"/>
       <c r="B84" s="26" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.6">
+    <row r="85" spans="1:2" ht="15.75">
       <c r="A85" s="19"/>
       <c r="B85" s="26" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.6">
+    <row r="86" spans="1:2" ht="15.75">
       <c r="A86" s="19"/>
       <c r="B86" s="26" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.6">
+    <row r="87" spans="1:2" ht="15.75">
       <c r="A87" s="19"/>
       <c r="B87" s="26" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.6">
+    <row r="88" spans="1:2" ht="15.75">
       <c r="A88" s="19"/>
       <c r="B88" s="26" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.6">
+    <row r="89" spans="1:2" ht="15.75">
       <c r="A89" s="19"/>
       <c r="B89" s="26" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.6">
+    <row r="90" spans="1:2" ht="15.75">
       <c r="A90" s="19"/>
       <c r="B90" s="26" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.6">
+    <row r="91" spans="1:2" ht="15.75">
       <c r="A91" s="19"/>
       <c r="B91" s="26" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.6">
+    <row r="92" spans="1:2" ht="15.75">
       <c r="A92" s="19"/>
       <c r="B92" s="26" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.6">
+    <row r="93" spans="1:2" ht="15.75">
       <c r="A93" s="19"/>
       <c r="B93" s="26" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.6">
+    <row r="94" spans="1:2" ht="15.75">
       <c r="A94" s="19"/>
       <c r="B94" s="26" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.6">
+    <row r="95" spans="1:2" ht="15.75">
       <c r="A95" s="19"/>
       <c r="B95" s="26" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.6">
+    <row r="96" spans="1:2" ht="15.75">
       <c r="A96" s="19"/>
       <c r="B96" s="26" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.6">
+    <row r="97" spans="1:2" ht="15.75">
       <c r="A97" s="19"/>
       <c r="B97" s="26" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.6">
+    <row r="98" spans="1:2" ht="15.75">
       <c r="A98" s="19"/>
       <c r="B98" s="26" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.6">
+    <row r="99" spans="1:2" ht="15.75">
       <c r="A99" s="19"/>
       <c r="B99" s="26" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.6">
+    <row r="100" spans="1:2" ht="15.75">
       <c r="A100" s="19"/>
       <c r="B100" s="26" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.6">
+    <row r="101" spans="1:2" ht="15.75">
       <c r="A101" s="19"/>
       <c r="B101" s="26" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.6">
+    <row r="102" spans="1:2" ht="15.75">
       <c r="A102" s="19"/>
       <c r="B102" s="26" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.6">
+    <row r="103" spans="1:2" ht="15.75">
       <c r="A103" s="19"/>
       <c r="B103" s="26" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.6">
+    <row r="104" spans="1:2" ht="15.75">
       <c r="A104" s="19"/>
       <c r="B104" s="26" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.6">
+    <row r="105" spans="1:2" ht="15.75">
       <c r="A105" s="19"/>
       <c r="B105" s="26" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.6">
+    <row r="106" spans="1:2" ht="15.75">
       <c r="A106" s="19"/>
       <c r="B106" s="26" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.6">
+    <row r="107" spans="1:2" ht="15.75">
       <c r="A107" s="19"/>
       <c r="B107" s="26" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.6">
+    <row r="108" spans="1:2" ht="15.75">
       <c r="A108" s="19"/>
       <c r="B108" s="26" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.6">
+    <row r="109" spans="1:2" ht="15.75">
       <c r="A109" s="19"/>
       <c r="B109" s="26" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.6">
+    <row r="110" spans="1:2" ht="15.75">
       <c r="A110" s="19"/>
       <c r="B110" s="26" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.6">
+    <row r="111" spans="1:2" ht="15.75">
       <c r="A111" s="19"/>
       <c r="B111" s="26" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.6">
+    <row r="112" spans="1:2" ht="15.75">
       <c r="A112" s="19"/>
       <c r="B112" s="26" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.6">
+    <row r="113" spans="1:2" ht="15.75">
       <c r="A113" s="19"/>
       <c r="B113" s="26" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.6">
+    <row r="114" spans="1:2" ht="15.75">
       <c r="A114" s="19"/>
       <c r="B114" s="26" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.6">
+    <row r="115" spans="1:2" ht="15.75">
       <c r="A115" s="19"/>
       <c r="B115" s="26" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.6">
+    <row r="116" spans="1:2" ht="15.75">
       <c r="A116" s="19"/>
       <c r="B116" s="26" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.6">
+    <row r="117" spans="1:2" ht="15.75">
       <c r="A117" s="19"/>
       <c r="B117" s="26" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.6">
+    <row r="118" spans="1:2" ht="15.75">
       <c r="A118" s="19"/>
       <c r="B118" s="26" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.6">
+    <row r="119" spans="1:2" ht="15.75">
       <c r="A119" s="19"/>
       <c r="B119" s="26" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.6">
+    <row r="120" spans="1:2" ht="15.75">
       <c r="A120" s="19"/>
       <c r="B120" s="26" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.6">
+    <row r="121" spans="1:2" ht="15.75">
       <c r="A121" s="19"/>
       <c r="B121" s="26" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.6">
+    <row r="122" spans="1:2" ht="15.75">
       <c r="A122" s="19"/>
       <c r="B122" s="26" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.6">
+    <row r="123" spans="1:2" ht="15.75">
       <c r="A123" s="19"/>
       <c r="B123" s="26" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.6">
+    <row r="124" spans="1:2" ht="15.75">
       <c r="A124" s="19"/>
       <c r="B124" s="26" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.6">
+    <row r="125" spans="1:2" ht="15.75">
       <c r="A125" s="19"/>
       <c r="B125" s="26" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.6">
+    <row r="126" spans="1:2" ht="15.75">
       <c r="A126" s="19"/>
       <c r="B126" s="26" t="s">
         <v>558</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.6">
+    <row r="127" spans="1:2" ht="15.75">
       <c r="A127" s="19"/>
       <c r="B127" s="26" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.6">
+    <row r="128" spans="1:2" ht="15.75">
       <c r="A128" s="19"/>
       <c r="B128" s="26" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.6">
+    <row r="129" spans="1:2" ht="15.75">
       <c r="A129" s="19"/>
       <c r="B129" s="26" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.6">
+    <row r="130" spans="1:2" ht="15.75">
       <c r="A130" s="19"/>
       <c r="B130" s="26" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.6">
+    <row r="131" spans="1:2" ht="15.75">
       <c r="A131" s="19"/>
       <c r="B131" s="26" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.6">
+    <row r="132" spans="1:2" ht="15.75">
       <c r="A132" s="19"/>
       <c r="B132" s="26" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.6">
+    <row r="133" spans="1:2" ht="15.75">
       <c r="A133" s="19"/>
       <c r="B133" s="26" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.6">
+    <row r="134" spans="1:2" ht="15.75">
       <c r="A134" s="19"/>
       <c r="B134" s="26" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.6">
+    <row r="135" spans="1:2" ht="15.75">
       <c r="A135" s="19"/>
       <c r="B135" s="26" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.6">
+    <row r="136" spans="1:2" ht="15.75">
       <c r="A136" s="19"/>
       <c r="B136" s="26" t="s">
         <v>568</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.6">
+    <row r="137" spans="1:2" ht="15.75">
       <c r="A137" s="19"/>
       <c r="B137" s="26" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.6">
+    <row r="138" spans="1:2" ht="15.75">
       <c r="A138" s="19"/>
       <c r="B138" s="26" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.6">
+    <row r="139" spans="1:2" ht="15.75">
       <c r="A139" s="19"/>
       <c r="B139" s="26" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.6">
+    <row r="140" spans="1:2" ht="15.75">
       <c r="A140" s="19"/>
       <c r="B140" s="26" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.6">
+    <row r="141" spans="1:2" ht="15.75">
       <c r="A141" s="19"/>
       <c r="B141" s="26" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.6">
+    <row r="142" spans="1:2" ht="15.75">
       <c r="A142" s="19"/>
       <c r="B142" s="26" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.6">
+    <row r="143" spans="1:2" ht="15.75">
       <c r="A143" s="19"/>
       <c r="B143" s="26" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.6">
+    <row r="144" spans="1:2" ht="15.75">
       <c r="A144" s="19"/>
       <c r="B144" s="26" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.6">
+    <row r="145" spans="1:2" ht="15.75">
       <c r="A145" s="19"/>
       <c r="B145" s="26" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.6">
+    <row r="146" spans="1:2" ht="15.75">
       <c r="A146" s="19"/>
       <c r="B146" s="26" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.6">
+    <row r="147" spans="1:2" ht="15.75">
       <c r="A147" s="19"/>
       <c r="B147" s="26" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.6">
+    <row r="148" spans="1:2" ht="15.75">
       <c r="A148" s="19"/>
       <c r="B148" s="26" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.6">
+    <row r="149" spans="1:2" ht="15.75">
       <c r="A149" s="19"/>
       <c r="B149" s="26" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.6">
+    <row r="150" spans="1:2" ht="15.75">
       <c r="A150" s="19"/>
       <c r="B150" s="26" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.6">
+    <row r="151" spans="1:2" ht="15.75">
       <c r="A151" s="19"/>
       <c r="B151" s="26" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.6">
+    <row r="152" spans="1:2" ht="15.75">
       <c r="A152" s="19"/>
       <c r="B152" s="26" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.6">
+    <row r="153" spans="1:2" ht="15.75">
       <c r="A153" s="19"/>
       <c r="B153" s="26" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.6">
+    <row r="154" spans="1:2" ht="15.75">
       <c r="A154" s="19"/>
       <c r="B154" s="26" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.6">
+    <row r="155" spans="1:2" ht="15.75">
       <c r="A155" s="19"/>
       <c r="B155" s="26" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.6">
+    <row r="156" spans="1:2" ht="15.75">
       <c r="A156" s="19"/>
       <c r="B156" s="26" t="s">
         <v>588</v>
@@ -9406,636 +10513,636 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="58.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="25" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="15.6">
+    <row r="2" spans="1:1" ht="15.75">
       <c r="A2" s="19"/>
     </row>
-    <row r="3" spans="1:1" ht="15.6">
+    <row r="3" spans="1:1" ht="15.75">
       <c r="A3" s="23" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6">
+    <row r="4" spans="1:1" ht="15.75">
       <c r="A4" s="23" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="15.6">
+    <row r="5" spans="1:1" ht="15.75">
       <c r="A5" s="23" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="15.6">
+    <row r="6" spans="1:1" ht="15.75">
       <c r="A6" s="23" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="15.6">
+    <row r="7" spans="1:1" ht="15.75">
       <c r="A7" s="23" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6">
+    <row r="8" spans="1:1" ht="15.75">
       <c r="A8" s="23" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.6">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="23" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.6">
+    <row r="10" spans="1:1" ht="15.75">
       <c r="A10" s="23" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.6">
+    <row r="11" spans="1:1" ht="15.75">
       <c r="A11" s="23" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.6">
+    <row r="12" spans="1:1" ht="15.75">
       <c r="A12" s="23" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6">
+    <row r="13" spans="1:1" ht="15.75">
       <c r="A13" s="23" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="15.6">
+    <row r="14" spans="1:1" ht="15.75">
       <c r="A14" s="23" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.6">
+    <row r="15" spans="1:1" ht="15.75">
       <c r="A15" s="23" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.6">
+    <row r="16" spans="1:1" ht="15.75">
       <c r="A16" s="23" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.6">
+    <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="23" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="15.6">
+    <row r="18" spans="1:1" ht="15.75">
       <c r="A18" s="23" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.6">
+    <row r="19" spans="1:1" ht="15.75">
       <c r="A19" s="23" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.6">
+    <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="23" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.6">
+    <row r="21" spans="1:1" ht="15.75">
       <c r="A21" s="23" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.6">
+    <row r="22" spans="1:1" ht="15.75">
       <c r="A22" s="23" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.6">
+    <row r="23" spans="1:1" ht="15.75">
       <c r="A23" s="23" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="15.6">
+    <row r="24" spans="1:1" ht="15.75">
       <c r="A24" s="23" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.6">
+    <row r="25" spans="1:1" ht="15.75">
       <c r="A25" s="23" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.6">
+    <row r="26" spans="1:1" ht="15.75">
       <c r="A26" s="23" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.6">
+    <row r="27" spans="1:1" ht="15.75">
       <c r="A27" s="23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.6">
+    <row r="28" spans="1:1" ht="15.75">
       <c r="A28" s="23" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.6">
+    <row r="29" spans="1:1" ht="15.75">
       <c r="A29" s="23" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.6">
+    <row r="30" spans="1:1" ht="15.75">
       <c r="A30" s="23" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="15.6">
+    <row r="31" spans="1:1" ht="15.75">
       <c r="A31" s="23" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="15.6">
+    <row r="32" spans="1:1" ht="15.75">
       <c r="A32" s="23" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="15.6">
+    <row r="33" spans="1:1" ht="15.75">
       <c r="A33" s="23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="15.6">
+    <row r="34" spans="1:1" ht="15.75">
       <c r="A34" s="23" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.6">
+    <row r="35" spans="1:1" ht="15.75">
       <c r="A35" s="23" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="15.6">
+    <row r="36" spans="1:1" ht="15.75">
       <c r="A36" s="23" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="15.6">
+    <row r="37" spans="1:1" ht="15.75">
       <c r="A37" s="23" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="15.6">
+    <row r="38" spans="1:1" ht="15.75">
       <c r="A38" s="23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="15.6">
+    <row r="39" spans="1:1" ht="15.75">
       <c r="A39" s="23" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="15.6">
+    <row r="40" spans="1:1" ht="15.75">
       <c r="A40" s="23" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.6">
+    <row r="41" spans="1:1" ht="15.75">
       <c r="A41" s="23" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="15.6">
+    <row r="42" spans="1:1" ht="15.75">
       <c r="A42" s="23" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="15.6">
+    <row r="43" spans="1:1" ht="15.75">
       <c r="A43" s="23" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.6">
+    <row r="44" spans="1:1" ht="15.75">
       <c r="A44" s="23" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="15.6">
+    <row r="45" spans="1:1" ht="15.75">
       <c r="A45" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="15.6">
+    <row r="46" spans="1:1" ht="15.75">
       <c r="A46" s="23" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="15.6">
+    <row r="47" spans="1:1" ht="15.75">
       <c r="A47" s="23" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="15.6">
+    <row r="48" spans="1:1" ht="15.75">
       <c r="A48" s="23" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.6">
+    <row r="49" spans="1:1" ht="15.75">
       <c r="A49" s="23" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="15.6">
+    <row r="50" spans="1:1" ht="15.75">
       <c r="A50" s="23" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="15.6">
+    <row r="51" spans="1:1" ht="15.75">
       <c r="A51" s="23" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.6">
+    <row r="52" spans="1:1" ht="15.75">
       <c r="A52" s="23" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="15.6">
+    <row r="53" spans="1:1" ht="15.75">
       <c r="A53" s="23" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="15.6">
+    <row r="54" spans="1:1" ht="15.75">
       <c r="A54" s="23" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.6">
+    <row r="55" spans="1:1" ht="15.75">
       <c r="A55" s="23" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="15.6">
+    <row r="56" spans="1:1" ht="15.75">
       <c r="A56" s="23" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="15.6">
+    <row r="57" spans="1:1" ht="15.75">
       <c r="A57" s="23" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.6">
+    <row r="58" spans="1:1" ht="15.75">
       <c r="A58" s="23" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="15.6">
+    <row r="59" spans="1:1" ht="15.75">
       <c r="A59" s="23" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="15.6">
+    <row r="60" spans="1:1" ht="15.75">
       <c r="A60" s="23" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="15.6">
+    <row r="61" spans="1:1" ht="15.75">
       <c r="A61" s="23" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="15.6">
+    <row r="62" spans="1:1" ht="15.75">
       <c r="A62" s="23" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="15.6">
+    <row r="63" spans="1:1" ht="15.75">
       <c r="A63" s="23" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="15.6">
+    <row r="64" spans="1:1" ht="15.75">
       <c r="A64" s="23" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="15.6">
+    <row r="65" spans="1:1" ht="15.75">
       <c r="A65" s="23" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="15.6">
+    <row r="66" spans="1:1" ht="15.75">
       <c r="A66" s="23" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="15.6">
+    <row r="67" spans="1:1" ht="15.75">
       <c r="A67" s="23" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="15.6">
+    <row r="68" spans="1:1" ht="15.75">
       <c r="A68" s="23" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="15.6">
+    <row r="69" spans="1:1" ht="15.75">
       <c r="A69" s="23" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="15.6">
+    <row r="70" spans="1:1" ht="15.75">
       <c r="A70" s="23" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="15.6">
+    <row r="71" spans="1:1" ht="15.75">
       <c r="A71" s="23" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="15.6">
+    <row r="72" spans="1:1" ht="15.75">
       <c r="A72" s="23" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="15.6">
+    <row r="73" spans="1:1" ht="15.75">
       <c r="A73" s="23" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="15.6">
+    <row r="74" spans="1:1" ht="15.75">
       <c r="A74" s="23" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="15.6">
+    <row r="75" spans="1:1" ht="15.75">
       <c r="A75" s="23" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="15.6">
+    <row r="76" spans="1:1" ht="15.75">
       <c r="A76" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="15.6">
+    <row r="77" spans="1:1" ht="15.75">
       <c r="A77" s="23" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="15.6">
+    <row r="78" spans="1:1" ht="15.75">
       <c r="A78" s="23" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="15.6">
+    <row r="79" spans="1:1" ht="15.75">
       <c r="A79" s="23" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="15.6">
+    <row r="80" spans="1:1" ht="15.75">
       <c r="A80" s="23" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="15.6">
+    <row r="81" spans="1:1" ht="15.75">
       <c r="A81" s="23" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="15.6">
+    <row r="82" spans="1:1" ht="15.75">
       <c r="A82" s="23" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="15.6">
+    <row r="83" spans="1:1" ht="15.75">
       <c r="A83" s="23" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="15.6">
+    <row r="84" spans="1:1" ht="15.75">
       <c r="A84" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="15.6">
+    <row r="85" spans="1:1" ht="15.75">
       <c r="A85" s="23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="15.6">
+    <row r="86" spans="1:1" ht="15.75">
       <c r="A86" s="23" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="15.6">
+    <row r="87" spans="1:1" ht="15.75">
       <c r="A87" s="23" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="15.6">
+    <row r="88" spans="1:1" ht="15.75">
       <c r="A88" s="23" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="15.6">
+    <row r="89" spans="1:1" ht="15.75">
       <c r="A89" s="23" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="15.6">
+    <row r="90" spans="1:1" ht="15.75">
       <c r="A90" s="23" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="15.6">
+    <row r="91" spans="1:1" ht="15.75">
       <c r="A91" s="23" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="15.6">
+    <row r="92" spans="1:1" ht="15.75">
       <c r="A92" s="23" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="15.6">
+    <row r="93" spans="1:1" ht="15.75">
       <c r="A93" s="23" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="15.6">
+    <row r="94" spans="1:1" ht="15.75">
       <c r="A94" s="23" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="15.6">
+    <row r="95" spans="1:1" ht="15.75">
       <c r="A95" s="23" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="15.6">
+    <row r="96" spans="1:1" ht="15.75">
       <c r="A96" s="23" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="15.6">
+    <row r="97" spans="1:1" ht="15.75">
       <c r="A97" s="23" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="15.6">
+    <row r="98" spans="1:1" ht="15.75">
       <c r="A98" s="23" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="15.6">
+    <row r="99" spans="1:1" ht="15.75">
       <c r="A99" s="23" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="15.6">
+    <row r="100" spans="1:1" ht="15.75">
       <c r="A100" s="23" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="15.6">
+    <row r="101" spans="1:1" ht="15.75">
       <c r="A101" s="23" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="15.6">
+    <row r="102" spans="1:1" ht="15.75">
       <c r="A102" s="23" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="15.6">
+    <row r="103" spans="1:1" ht="15.75">
       <c r="A103" s="23" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="15.6">
+    <row r="104" spans="1:1" ht="15.75">
       <c r="A104" s="23" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="15.6">
+    <row r="105" spans="1:1" ht="15.75">
       <c r="A105" s="23" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="15.6">
+    <row r="106" spans="1:1" ht="15.75">
       <c r="A106" s="23" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="15.6">
+    <row r="107" spans="1:1" ht="15.75">
       <c r="A107" s="23" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="15.6">
+    <row r="108" spans="1:1" ht="15.75">
       <c r="A108" s="23" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="15.6">
+    <row r="109" spans="1:1" ht="15.75">
       <c r="A109" s="23" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="15.6">
+    <row r="110" spans="1:1" ht="15.75">
       <c r="A110" s="23" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="15.6">
+    <row r="111" spans="1:1" ht="15.75">
       <c r="A111" s="23" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="15.6">
+    <row r="112" spans="1:1" ht="15.75">
       <c r="A112" s="23" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="15.6">
+    <row r="113" spans="1:1" ht="15.75">
       <c r="A113" s="23" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="15.6">
+    <row r="114" spans="1:1" ht="15.75">
       <c r="A114" s="23" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="15.6">
+    <row r="115" spans="1:1" ht="15.75">
       <c r="A115" s="23" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="15.6">
+    <row r="116" spans="1:1" ht="15.75">
       <c r="A116" s="23" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="15.6">
+    <row r="117" spans="1:1" ht="15.75">
       <c r="A117" s="23" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="15.6">
+    <row r="118" spans="1:1" ht="15.75">
       <c r="A118" s="23" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="15.6">
+    <row r="119" spans="1:1" ht="15.75">
       <c r="A119" s="23" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="15.6">
+    <row r="120" spans="1:1" ht="15.75">
       <c r="A120" s="23" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="15.6">
+    <row r="121" spans="1:1" ht="15.75">
       <c r="A121" s="23" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="15.6">
+    <row r="122" spans="1:1" ht="15.75">
       <c r="A122" s="23" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="15.6">
+    <row r="123" spans="1:1" ht="15.75">
       <c r="A123" s="23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="15.6">
+    <row r="124" spans="1:1" ht="15.75">
       <c r="A124" s="23" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="15.6">
+    <row r="125" spans="1:1" ht="15.75">
       <c r="A125" s="23" t="s">
         <v>430</v>
       </c>
@@ -10045,7 +11152,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B23"/>
   <sheetViews>
@@ -10053,19 +11160,19 @@
       <selection activeCell="A5" sqref="A5:B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.21875" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.6">
+    <row r="1" spans="1:2" ht="15.75">
       <c r="A1" s="44" t="s">
         <v>432</v>
       </c>
       <c r="B1" s="44"/>
     </row>
-    <row r="2" spans="1:2" ht="15.6">
+    <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="21" t="s">
         <v>665</v>
       </c>
@@ -10073,7 +11180,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.6">
+    <row r="3" spans="1:2" ht="15.75">
       <c r="A3" s="22">
         <v>585.4</v>
       </c>
@@ -10081,83 +11188,83 @@
         <v>433</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.6">
+    <row r="4" spans="1:2" ht="15.75">
       <c r="A4" s="19"/>
       <c r="B4" s="19"/>
     </row>
-    <row r="5" spans="1:2" ht="15.6">
+    <row r="5" spans="1:2" ht="15.75">
       <c r="A5" s="21"/>
       <c r="B5" s="21"/>
     </row>
-    <row r="6" spans="1:2" ht="15.6">
+    <row r="6" spans="1:2" ht="15.75">
       <c r="A6" s="28"/>
       <c r="B6" s="28"/>
     </row>
-    <row r="7" spans="1:2" ht="15.6">
+    <row r="7" spans="1:2" ht="15.75">
       <c r="A7" s="28"/>
       <c r="B7" s="28"/>
     </row>
-    <row r="8" spans="1:2" ht="15.6">
+    <row r="8" spans="1:2" ht="15.75">
       <c r="A8" s="28"/>
       <c r="B8" s="28"/>
     </row>
-    <row r="9" spans="1:2" ht="15.6">
+    <row r="9" spans="1:2" ht="15.75">
       <c r="A9" s="28"/>
       <c r="B9" s="28"/>
     </row>
-    <row r="10" spans="1:2" ht="15.6">
+    <row r="10" spans="1:2" ht="15.75">
       <c r="A10" s="28"/>
       <c r="B10" s="28"/>
     </row>
-    <row r="11" spans="1:2" ht="15.6">
+    <row r="11" spans="1:2" ht="15.75">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
     </row>
-    <row r="12" spans="1:2" ht="15.6">
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="28"/>
       <c r="B12" s="27"/>
     </row>
-    <row r="13" spans="1:2" ht="15.6">
+    <row r="13" spans="1:2" ht="15.75">
       <c r="A13" s="28"/>
       <c r="B13" s="27"/>
     </row>
-    <row r="14" spans="1:2" ht="15.6">
+    <row r="14" spans="1:2" ht="15.75">
       <c r="A14" s="28"/>
       <c r="B14" s="27"/>
     </row>
-    <row r="15" spans="1:2" ht="15.6">
+    <row r="15" spans="1:2" ht="15.75">
       <c r="A15" s="28"/>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:2" ht="15.6">
+    <row r="16" spans="1:2" ht="15.75">
       <c r="A16" s="28"/>
       <c r="B16" s="27"/>
     </row>
-    <row r="17" spans="1:2" ht="15.6">
+    <row r="17" spans="1:2" ht="15.75">
       <c r="A17" s="28"/>
       <c r="B17" s="27"/>
     </row>
-    <row r="18" spans="1:2" ht="15.6">
+    <row r="18" spans="1:2" ht="15.75">
       <c r="A18" s="28"/>
       <c r="B18" s="27"/>
     </row>
-    <row r="19" spans="1:2" ht="15.6">
+    <row r="19" spans="1:2" ht="15.75">
       <c r="A19" s="28"/>
       <c r="B19" s="27"/>
     </row>
-    <row r="20" spans="1:2" ht="15.6">
+    <row r="20" spans="1:2" ht="15.75">
       <c r="A20" s="28"/>
       <c r="B20" s="27"/>
     </row>
-    <row r="21" spans="1:2" ht="15.6">
+    <row r="21" spans="1:2" ht="15.75">
       <c r="A21" s="28"/>
       <c r="B21" s="27"/>
     </row>
-    <row r="22" spans="1:2" ht="15.6">
+    <row r="22" spans="1:2" ht="15.75">
       <c r="A22" s="28"/>
       <c r="B22" s="27"/>
     </row>
-    <row r="23" spans="1:2" ht="15.6">
+    <row r="23" spans="1:2" ht="15.75">
       <c r="A23" s="28"/>
       <c r="B23" s="27"/>
     </row>
@@ -10167,154 +11274,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.6">
-      <c r="A1" s="44" t="s">
-        <v>442</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.6">
-      <c r="A2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6">
-      <c r="A3" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="B3" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="22" t="s">
-        <v>444</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6">
-      <c r="A4" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="B4" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.6">
-      <c r="A5" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.6">
-      <c r="A6" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.6">
-      <c r="A7" s="26" t="s">
-        <v>434</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>438</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.6">
-      <c r="A8" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>439</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.6">
-      <c r="A9" s="26" t="s">
-        <v>436</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>440</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.6">
-      <c r="A10" s="26" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" s="26" t="s">
-        <v>441</v>
-      </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.6">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Projects/Metrics/DSRIP-TR022 ( Steve)/TR022 - Comprehensive Diabetes Screening - All Three Tests - Technical Specification.xlsx
+++ b/Projects/Metrics/DSRIP-TR022 ( Steve)/TR022 - Comprehensive Diabetes Screening - All Three Tests - Technical Specification.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9405"/>
   </bookViews>
   <sheets>
     <sheet name="TR022" sheetId="1" r:id="rId1"/>
@@ -4230,6 +4230,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4242,7 +4243,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4526,8 +4526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -4691,15 +4691,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
       <c r="C1" s="19"/>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>443</v>
       </c>
-      <c r="E1" s="44"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="15.75">
       <c r="A2" s="21" t="s">
@@ -4828,7 +4828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C60"/>
     </sheetView>
   </sheetViews>
@@ -4838,662 +4838,662 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B1" s="45" t="s">
+      <c r="B1" s="41" t="s">
         <v>1051</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="41" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>1053</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="41" t="s">
         <v>1055</v>
       </c>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="41" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B4" s="45" t="s">
+      <c r="B4" s="41" t="s">
         <v>1056</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="41" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="41" t="s">
         <v>1057</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="41" t="s">
         <v>1059</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="41" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="41" t="s">
         <v>1061</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="41" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>1063</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="41" t="s">
         <v>1064</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="41" t="s">
         <v>1065</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="41" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="41" t="s">
         <v>1066</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="41" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="45" t="s">
+      <c r="A12" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="41" t="s">
         <v>1067</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="41" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="45" t="s">
+      <c r="A13" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="41" t="s">
         <v>1069</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="41" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="41" t="s">
         <v>1071</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="41" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="45" t="s">
+      <c r="A15" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="41" t="s">
         <v>1072</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="41" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="45" t="s">
+      <c r="A16" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="41" t="s">
         <v>1073</v>
       </c>
-      <c r="C16" s="45" t="s">
+      <c r="C16" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="41" t="s">
         <v>1074</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="41" t="s">
         <v>1075</v>
       </c>
-      <c r="C18" s="45" t="s">
+      <c r="C18" s="41" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="45" t="s">
+      <c r="A19" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="41" t="s">
         <v>1077</v>
       </c>
-      <c r="C19" s="45" t="s">
+      <c r="C19" s="41" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="41" t="s">
         <v>1080</v>
       </c>
-      <c r="C20" s="45" t="s">
+      <c r="C20" s="41" t="s">
         <v>1081</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="45" t="s">
+      <c r="A21" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="41" t="s">
         <v>1082</v>
       </c>
-      <c r="C21" s="45" t="s">
+      <c r="C21" s="41" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="41" t="s">
         <v>1085</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="41" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="41" t="s">
         <v>1087</v>
       </c>
-      <c r="C23" s="45" t="s">
+      <c r="C23" s="41" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="41" t="s">
         <v>1088</v>
       </c>
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="41" t="s">
         <v>1089</v>
       </c>
-      <c r="C24" s="45" t="s">
+      <c r="C24" s="41" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="45" t="s">
+      <c r="A25" s="41" t="s">
         <v>1079</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="41" t="s">
         <v>1091</v>
       </c>
-      <c r="C25" s="45" t="s">
+      <c r="C25" s="41" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="45" t="s">
+      <c r="A26" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="41" t="s">
         <v>1093</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="41" t="s">
         <v>1092</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="41" t="s">
         <v>1094</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="45" t="s">
+      <c r="A28" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="41" t="s">
         <v>1096</v>
       </c>
-      <c r="C28" s="45" t="s">
+      <c r="C28" s="41" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="45" t="s">
+      <c r="A29" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="41" t="s">
         <v>1098</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="41" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="41" t="s">
         <v>1100</v>
       </c>
-      <c r="C30" s="45" t="s">
+      <c r="C30" s="41" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>1101</v>
       </c>
-      <c r="C31" s="45" t="s">
+      <c r="C31" s="41" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="41" t="s">
         <v>1103</v>
       </c>
-      <c r="C32" s="45" t="s">
+      <c r="C32" s="41" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="41" t="s">
         <v>1104</v>
       </c>
-      <c r="C33" s="45" t="s">
+      <c r="C33" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="45" t="s">
+      <c r="A34" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="41" t="s">
         <v>1106</v>
       </c>
-      <c r="C34" s="45" t="s">
+      <c r="C34" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="41" t="s">
         <v>1107</v>
       </c>
-      <c r="C35" s="45" t="s">
+      <c r="C35" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="41" t="s">
         <v>1108</v>
       </c>
-      <c r="C36" s="45" t="s">
+      <c r="C36" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="45" t="s">
+      <c r="A37" s="41" t="s">
         <v>1109</v>
       </c>
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="41" t="s">
         <v>1110</v>
       </c>
-      <c r="C37" s="45" t="s">
+      <c r="C37" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="45" t="s">
+      <c r="A38" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="41" t="s">
         <v>1111</v>
       </c>
-      <c r="C38" s="45" t="s">
+      <c r="C38" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="45" t="s">
+      <c r="A39" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="41" t="s">
         <v>1112</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="41" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="45" t="s">
+      <c r="A40" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B40" s="45" t="s">
+      <c r="B40" s="41" t="s">
         <v>1113</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="41" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="45" t="s">
+      <c r="A41" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="41" t="s">
         <v>1114</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="45" t="s">
+      <c r="A42" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="41" t="s">
         <v>1115</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="41" t="s">
         <v>1102</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="41" t="s">
         <v>1095</v>
       </c>
-      <c r="B43" s="45" t="s">
+      <c r="B43" s="41" t="s">
         <v>1116</v>
       </c>
-      <c r="C43" s="45" t="s">
+      <c r="C43" s="41" t="s">
         <v>1105</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="45" t="s">
+      <c r="A44" s="41" t="s">
         <v>1062</v>
       </c>
-      <c r="B44" s="45" t="s">
+      <c r="B44" s="41" t="s">
         <v>1117</v>
       </c>
-      <c r="C44" s="45" t="s">
+      <c r="C44" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="45" t="s">
+      <c r="A45" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="41" t="s">
         <v>1118</v>
       </c>
-      <c r="C45" s="45" t="s">
+      <c r="C45" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="45" t="s">
+      <c r="A46" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B46" s="45" t="s">
+      <c r="B46" s="41" t="s">
         <v>1119</v>
       </c>
-      <c r="C46" s="45" t="s">
+      <c r="C46" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="41" t="s">
         <v>1050</v>
       </c>
-      <c r="B47" s="45" t="s">
+      <c r="B47" s="41" t="s">
         <v>1120</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="41" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="45" t="s">
+      <c r="A48" s="41" t="s">
         <v>1121</v>
       </c>
-      <c r="B48" s="45" t="s">
+      <c r="B48" s="41" t="s">
         <v>1122</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="41" t="s">
         <v>1123</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="41" t="s">
         <v>1109</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="41" t="s">
         <v>1124</v>
       </c>
-      <c r="C49" s="45" t="s">
+      <c r="C49" s="41" t="s">
         <v>1125</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="45" t="s">
+      <c r="A50" s="41" t="s">
         <v>1088</v>
       </c>
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="41" t="s">
         <v>1126</v>
       </c>
-      <c r="C50" s="45" t="s">
+      <c r="C50" s="41" t="s">
         <v>1090</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="41" t="s">
         <v>1127</v>
       </c>
-      <c r="C51" s="45" t="s">
+      <c r="C51" s="41" t="s">
         <v>1128</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="41" t="s">
         <v>1121</v>
       </c>
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="41" t="s">
         <v>1129</v>
       </c>
-      <c r="C52" s="45" t="s">
+      <c r="C52" s="41" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B53" s="45" t="s">
+      <c r="B53" s="41" t="s">
         <v>1131</v>
       </c>
-      <c r="C53" s="45" t="s">
+      <c r="C53" s="41" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="45" t="s">
+      <c r="A54" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B54" s="45" t="s">
+      <c r="B54" s="41" t="s">
         <v>1133</v>
       </c>
-      <c r="C54" s="45" t="s">
+      <c r="C54" s="41" t="s">
         <v>1132</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B55" s="45" t="s">
+      <c r="B55" s="41" t="s">
         <v>1134</v>
       </c>
-      <c r="C55" s="45" t="s">
+      <c r="C55" s="41" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="45" t="s">
+      <c r="A56" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B56" s="45" t="s">
+      <c r="B56" s="41" t="s">
         <v>1136</v>
       </c>
-      <c r="C56" s="45" t="s">
+      <c r="C56" s="41" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="41" t="s">
         <v>1121</v>
       </c>
-      <c r="B57" s="45" t="s">
+      <c r="B57" s="41" t="s">
         <v>1138</v>
       </c>
-      <c r="C57" s="45" t="s">
+      <c r="C57" s="41" t="s">
         <v>1086</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="41" t="s">
         <v>1139</v>
       </c>
-      <c r="C58" s="45" t="s">
+      <c r="C58" s="41" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="41" t="s">
         <v>1140</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="41" t="s">
         <v>1137</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="45" t="s">
+      <c r="A60" s="41" t="s">
         <v>1084</v>
       </c>
-      <c r="B60" s="45" t="s">
+      <c r="B60" s="41" t="s">
         <v>1141</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="41" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -5566,14 +5566,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="D1" s="42" t="s">
+      <c r="B1" s="42"/>
+      <c r="D1" s="43" t="s">
         <v>667</v>
       </c>
-      <c r="E1" s="42"/>
+      <c r="E1" s="43"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="29" t="s">
@@ -8417,8 +8417,8 @@
       <c r="A1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
       <c r="G1" s="18"/>
     </row>
     <row r="2" spans="1:7">
@@ -9408,10 +9408,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>446</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="35" t="s">
@@ -10517,7 +10517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A125"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A22" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11167,10 +11167,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>432</v>
       </c>
-      <c r="B1" s="44"/>
+      <c r="B1" s="45"/>
     </row>
     <row r="2" spans="1:2" ht="15.75">
       <c r="A2" s="21" t="s">
